--- a/product_image/product_image/16/11/16-11.xlsx
+++ b/product_image/product_image/16/11/16-11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo33.DESKTOP-56U45AS\Desktop\workspace\Kmarket\product_image\product_image\16\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\Kmarket\product_image\product_image\16\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09755B11-76D4-4D0D-BD2D-396A69ECF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="2340" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="2340" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,11 +129,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,23 +526,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="110.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="110.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,7 +568,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="17.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -587,7 +586,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="17.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -605,7 +604,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="17.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -623,7 +622,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="17.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -641,7 +640,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="17.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -659,7 +658,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="17.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="17.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -695,7 +694,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="17.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -713,7 +712,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="17.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -731,7 +730,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="17.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -749,9 +748,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="17.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>99999999</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -761,10 +760,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:14" ht="17.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -773,10 +770,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:14" ht="17.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -785,10 +780,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:14" ht="17.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -797,10 +790,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:14" ht="17.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -809,10 +800,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:8" ht="17.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -821,10 +810,8 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:8" ht="17.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -833,10 +820,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:8" ht="17.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -845,10 +830,8 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:8" ht="17.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -857,10 +840,8 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:8" ht="17.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -869,10 +850,8 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:8" ht="17.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -881,10 +860,8 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:8" ht="17.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -893,10 +870,8 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
+    <row r="24" spans="1:8" ht="17.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -905,10 +880,8 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:8" ht="17.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -917,10 +890,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
+    <row r="26" spans="1:8" ht="17.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -929,10 +900,8 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
+    <row r="27" spans="1:8" ht="17.25">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -941,10 +910,8 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:8" ht="17.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -953,10 +920,8 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
+    <row r="29" spans="1:8" ht="17.25">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -965,10 +930,8 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:8" ht="17.25">
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -977,10 +940,8 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
+    <row r="31" spans="1:8" ht="17.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -989,10 +950,8 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
+    <row r="32" spans="1:8" ht="17.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1001,10 +960,8 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
+    <row r="33" spans="1:8" ht="17.25">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1013,10 +970,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
+    <row r="34" spans="1:8" ht="17.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1025,10 +980,8 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
+    <row r="35" spans="1:8" ht="17.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1037,10 +990,8 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
+    <row r="36" spans="1:8" ht="17.25">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1049,522 +1000,392 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
+    <row r="37" spans="1:8" ht="17.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
+    <row r="38" spans="1:8" ht="17.25">
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
+    <row r="39" spans="1:8" ht="17.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
+    <row r="40" spans="1:8" ht="17.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
+    <row r="41" spans="1:8" ht="17.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
+    <row r="42" spans="1:8" ht="17.25">
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
+    <row r="43" spans="1:8" ht="17.25">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
+    <row r="44" spans="1:8" ht="17.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
+    <row r="45" spans="1:8" ht="17.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
+    <row r="46" spans="1:8" ht="17.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
+    <row r="47" spans="1:8" ht="17.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
+    <row r="48" spans="1:8" ht="17.25">
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
+    <row r="49" spans="1:4" ht="17.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
+    <row r="50" spans="1:4" ht="17.25">
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
+    <row r="51" spans="1:4" ht="17.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
+    <row r="52" spans="1:4" ht="17.25">
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
+    <row r="53" spans="1:4" ht="17.25">
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
+    <row r="54" spans="1:4" ht="17.25">
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
+    <row r="55" spans="1:4" ht="17.25">
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
+    <row r="56" spans="1:4" ht="17.25">
+      <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
+    <row r="57" spans="1:4" ht="17.25">
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
+    <row r="58" spans="1:4" ht="17.25">
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
+    <row r="59" spans="1:4" ht="17.25">
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
+    <row r="60" spans="1:4" ht="17.25">
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
+    <row r="61" spans="1:4" ht="17.25">
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
+    <row r="62" spans="1:4" ht="17.25">
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
+    <row r="63" spans="1:4" ht="17.25">
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
+    <row r="64" spans="1:4" ht="17.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
+    <row r="65" spans="1:4" ht="17.25">
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
+    <row r="66" spans="1:4" ht="17.25">
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
+    <row r="67" spans="1:4" ht="17.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
+    <row r="68" spans="1:4" ht="17.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
+    <row r="69" spans="1:4" ht="17.25">
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
+    <row r="70" spans="1:4" ht="17.25">
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
+    <row r="71" spans="1:4" ht="17.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
+    <row r="72" spans="1:4" ht="17.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
+    <row r="73" spans="1:4" ht="17.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
+    <row r="74" spans="1:4" ht="17.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
+    <row r="75" spans="1:4" ht="17.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
+    <row r="76" spans="1:4" ht="17.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
+    <row r="77" spans="1:4" ht="17.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
+    <row r="78" spans="1:4" ht="17.25">
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
+    <row r="79" spans="1:4" ht="17.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
+    <row r="80" spans="1:4" ht="17.25">
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
+    <row r="81" spans="1:4" ht="17.25">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
+    <row r="82" spans="1:4" ht="17.25">
+      <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
+    <row r="83" spans="1:4" ht="17.25">
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
+    <row r="84" spans="1:4" ht="17.25">
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
+    <row r="85" spans="1:4" ht="17.25">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
+    <row r="86" spans="1:4" ht="17.25">
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A87" s="3">
-        <v>86</v>
-      </c>
+    <row r="87" spans="1:4" ht="17.25">
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A88" s="3">
-        <v>87</v>
-      </c>
+    <row r="88" spans="1:4" ht="17.25">
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A89" s="3">
-        <v>88</v>
-      </c>
+    <row r="89" spans="1:4" ht="17.25">
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
+    <row r="90" spans="1:4" ht="17.25">
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
-        <v>90</v>
-      </c>
+    <row r="91" spans="1:4" ht="17.25">
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
+    <row r="92" spans="1:4" ht="17.25">
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A93" s="3">
-        <v>92</v>
-      </c>
+    <row r="93" spans="1:4" ht="17.25">
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A94" s="3">
-        <v>93</v>
-      </c>
+    <row r="94" spans="1:4" ht="17.25">
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A95" s="3">
-        <v>94</v>
-      </c>
+    <row r="95" spans="1:4" ht="17.25">
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
-        <v>95</v>
-      </c>
+    <row r="96" spans="1:4" ht="17.25">
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A97" s="3">
-        <v>96</v>
-      </c>
+    <row r="97" spans="1:4" ht="17.25">
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A98" s="3">
-        <v>97</v>
-      </c>
+    <row r="98" spans="1:4" ht="17.25">
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A99" s="3">
-        <v>98</v>
-      </c>
+    <row r="99" spans="1:4" ht="17.25">
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A100" s="3">
-        <v>99</v>
-      </c>
+    <row r="100" spans="1:4" ht="17.25">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A101" s="3">
-        <v>100</v>
-      </c>
+    <row r="101" spans="1:4" ht="17.25">
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
